--- a/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>8.445010300492228</v>
+        <v>8.487299773058886</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.242180920328682</v>
+        <v>8.17703893189862</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.315718197973071</v>
+        <v>7.389685286561035</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>7.012016103593139</v>
+        <v>7.23768709675885</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>6.280972842109311</v>
+        <v>6.343048961041616</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>6.151405377206133</v>
+        <v>6.040248810237871</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.17695179493024</v>
+        <v>5.132481009527025</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>3.196030566073004</v>
+        <v>3.39083832478149</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>3.1851649194107</v>
+        <v>3.318523148442117</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2.106973935809581</v>
+        <v>2.176093329063497</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>1.425983900189286</v>
+        <v>1.474100674863718</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.4777009288202284</v>
+        <v>0.05652031328557322</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
@@ -37,33 +37,33 @@
     <t>re_rank</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
+    <t>5eeaa065c7acf61c4322f6d9</t>
+  </si>
+  <si>
     <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
-    <t>5eeaa065c7acf61c4322f6d9</t>
-  </si>
-  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e0adc8f4cac6834756db412</t>
+  </si>
+  <si>
     <t>5e706891c396cc64388ef760</t>
   </si>
   <si>
-    <t>5e0adc8f4cac6834756db412</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -73,31 +73,31 @@
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Melissa</t>
   </si>
   <si>
-    <t>Katherine</t>
-  </si>
-  <si>
     <t>Valeria</t>
   </si>
   <si>
     <t>Alfredo</t>
   </si>
   <si>
+    <t>Yonifredy</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Yonifredy</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Mary</t>
+  </si>
+  <si>
     <t>Maria</t>
-  </si>
-  <si>
-    <t>Mary</t>
   </si>
   <si>
     <t>Josue</t>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>8.487299773058886</v>
+        <v>8.316648944792245</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.17703893189862</v>
+        <v>8.023344841524992</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.389685286561035</v>
+        <v>7.429443214079729</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>7.23768709675885</v>
+        <v>7.094459853851288</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>6.343048961041616</v>
+        <v>6.304187637973969</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>6.040248810237871</v>
+        <v>6.19077550199683</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.132481009527025</v>
+        <v>5.065205973220809</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -701,7 +701,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>3.39083832478149</v>
+        <v>3.358111939047832</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>3.318523148442117</v>
+        <v>3.344821734808749</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2.176093329063497</v>
+        <v>2.475630392065158</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>1.474100674863718</v>
+        <v>1.281029176420817</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.05652031328557322</v>
+        <v>0.379747773547242</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
@@ -43,12 +43,12 @@
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
+    <t>60ba8ba51a5e0a105396888a</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>60ba8ba51a5e0a105396888a</t>
-  </si>
-  <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e706891c396cc64388ef760</t>
+  </si>
+  <si>
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
-    <t>5e706891c396cc64388ef760</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Melissa</t>
   </si>
   <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
     <t>Yonifredy</t>
   </si>
   <si>
@@ -94,10 +94,10 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
     <t>Mary</t>
-  </si>
-  <si>
-    <t>Maria</t>
   </si>
   <si>
     <t>Josue</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>8.316648944792245</v>
+        <v>8.43712372573634</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.023344841524992</v>
+        <v>8.085171174491482</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -568,10 +568,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>7.429443214079729</v>
+        <v>7.483015296297952</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -594,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>7.094459853851288</v>
+        <v>7.18543091573438</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>6.304187637973969</v>
+        <v>6.391489871176138</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>6.19077550199683</v>
+        <v>6.387011644639443</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.065205973220809</v>
+        <v>5.012348235563821</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -701,7 +701,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>3.358111939047832</v>
+        <v>3.142757349846526</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>3.344821734808749</v>
+        <v>3.037402404511541</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2.475630392065158</v>
+        <v>2.344227293246886</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>1.281029176420817</v>
+        <v>1.337899327810482</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.379747773547242</v>
+        <v>0.002543171126171584</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
@@ -43,12 +43,12 @@
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
+    <t>5f0142aa1eb1e528e7abce50</t>
+  </si>
+  <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
-    <t>5f0142aa1eb1e528e7abce50</t>
-  </si>
-  <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Melissa</t>
   </si>
   <si>
+    <t>Valeria</t>
+  </si>
+  <si>
     <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Valeria</t>
   </si>
   <si>
     <t>Yonifredy</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>8.43712372573634</v>
+        <v>8.320630269032609</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.085171174491482</v>
+        <v>8.220999680247353</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -568,10 +568,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>7.483015296297952</v>
+        <v>7.392521412365356</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -594,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>7.18543091573438</v>
+        <v>7.195758649836163</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>6.391489871176138</v>
+        <v>6.375156838433768</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>6.387011644639443</v>
+        <v>6.167571326566887</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.012348235563821</v>
+        <v>5.182177952706946</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>3.142757349846526</v>
+        <v>3.34653025316331</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>3.037402404511541</v>
+        <v>3.069907791126405</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2.344227293246886</v>
+        <v>2.051855092120411</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>1.337899327810482</v>
+        <v>1.401088072767352</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.002543171126171584</v>
+        <v>0.363970251729259</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_hispanic.xlsx
@@ -37,33 +37,33 @@
     <t>re_rank</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
+    <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
-    <t>5f0142aa1eb1e528e7abce50</t>
+    <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
     <t>5eeaa065c7acf61c4322f6d9</t>
   </si>
   <si>
-    <t>5f5ea8227fa75676f56f9276</t>
-  </si>
-  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5e706891c396cc64388ef760</t>
+  </si>
+  <si>
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
-    <t>5e706891c396cc64388ef760</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -73,31 +73,31 @@
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Melissa</t>
   </si>
   <si>
-    <t>Katherine</t>
+    <t>Valeria</t>
   </si>
   <si>
     <t>Alfredo</t>
   </si>
   <si>
-    <t>Valeria</t>
+    <t>Carlos</t>
   </si>
   <si>
     <t>Yonifredy</t>
   </si>
   <si>
-    <t>Carlos</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
     <t>Mary</t>
-  </si>
-  <si>
-    <t>Maria</t>
   </si>
   <si>
     <t>Josue</t>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>8.154748808584117</v>
+        <v>8.051697533201137</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.100607705124663</v>
+        <v>8.049345038247747</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -568,10 +568,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>7.239291597438801</v>
+        <v>7.172380869265427</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -594,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>7.044986533518719</v>
+        <v>7.084258182079134</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>6.23862135191075</v>
+        <v>6.251133082574972</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>6.137405355585987</v>
+        <v>6.228542514609791</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.222678281883093</v>
+        <v>5.257951082805501</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -701,7 +701,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>3.331595170345159</v>
+        <v>3.374220793453376</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>3.01569320294723</v>
+        <v>3.30059129783378</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2.45260590871501</v>
+        <v>2.445237386649406</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>1.21262315450399</v>
+        <v>1.109097411672669</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.1284503043741946</v>
+        <v>0.3238469706846104</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
